--- a/challenge_1/tienda4/tienda_4.xlsx
+++ b/challenge_1/tienda4/tienda_4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\challenge_1\ejer\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\challenge_1\challenge_1\tienda4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DC8BCA-56C4-487E-8C7D-1E1E53C3F377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE91EAE-00A0-460C-8F5B-2C2E571D02B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14161" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14160" uniqueCount="1138">
   <si>
     <t>Producto</t>
   </si>
@@ -3445,9 +3445,6 @@
   </si>
   <si>
     <t>16/02/2023</t>
-  </si>
-  <si>
-    <t>$1,038,375,700.00</t>
   </si>
 </sst>
 </file>
@@ -3794,10 +3791,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L2363"/>
+  <dimension ref="A1:L2360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2338" workbookViewId="0">
-      <selection activeCell="C2359" sqref="C2359"/>
+      <selection activeCell="D2360" sqref="D2360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -93453,18 +93450,15 @@
       </c>
     </row>
     <row r="2360" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2360" s="1">
-        <f>SUM(C2:C2359)</f>
-        <v>1038375700</v>
-      </c>
-    </row>
-    <row r="2363" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C2363" t="s">
-        <v>1138</v>
+      <c r="C2360" s="1"/>
+      <c r="D2360" s="2">
+        <f>SUM(D2:D2359)</f>
+        <v>55317400</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>